--- a/demo/mixedd/Bijapur_Mixed_Map.xlsx
+++ b/demo/mixedd/Bijapur_Mixed_Map.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="215">
   <si>
     <t>censuscode2011</t>
   </si>
@@ -94,6 +94,9 @@
     <t>Visited</t>
   </si>
   <si>
+    <t>Branch Distance</t>
+  </si>
+  <si>
     <t>Cat_Status</t>
   </si>
   <si>
@@ -649,10 +652,10 @@
     <t>Not_Allowed_No_Center_Yet-To-Visit</t>
   </si>
   <si>
+    <t>Not_Allowed_No_Center_Visited</t>
+  </si>
+  <si>
     <t>Allowed_Center_Exists_Yet-To-Visit</t>
-  </si>
-  <si>
-    <t>Not_Allowed_No_Center_Visited</t>
   </si>
   <si>
     <t>Not_Allowed_Center_Exists_Visited</t>
@@ -1013,13 +1016,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB121"/>
+  <dimension ref="A1:AC121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:29">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1104,19 +1107,22 @@
       <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:28">
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
       <c r="A2">
         <v>598454</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E2">
         <v>2452</v>
@@ -1125,7 +1131,7 @@
         <v>469</v>
       </c>
       <c r="G2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H2">
         <v>16.7200377842</v>
@@ -1134,7 +1140,7 @@
         <v>75.4783333827</v>
       </c>
       <c r="J2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1176,33 +1182,36 @@
         <v>0</v>
       </c>
       <c r="X2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z2" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA2" t="s">
         <v>205</v>
       </c>
+      <c r="AA2">
+        <v>27.08748576112591</v>
+      </c>
       <c r="AB2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
       <c r="A3">
         <v>599033</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E3">
         <v>1695</v>
@@ -1211,7 +1220,7 @@
         <v>337</v>
       </c>
       <c r="G3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H3">
         <v>16.9301070083</v>
@@ -1220,7 +1229,7 @@
         <v>75.49458457430001</v>
       </c>
       <c r="J3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1262,33 +1271,36 @@
         <v>0</v>
       </c>
       <c r="X3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z3" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA3" t="s">
         <v>205</v>
       </c>
+      <c r="AA3">
+        <v>27.61598509073527</v>
+      </c>
       <c r="AB3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
       <c r="A4">
         <v>599034</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E4">
         <v>2980</v>
@@ -1297,7 +1309,7 @@
         <v>475</v>
       </c>
       <c r="G4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H4">
         <v>16.9417987698</v>
@@ -1306,7 +1318,7 @@
         <v>75.5288994724</v>
       </c>
       <c r="J4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -1348,33 +1360,36 @@
         <v>0</v>
       </c>
       <c r="X4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z4" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA4" t="s">
         <v>205</v>
       </c>
+      <c r="AA4">
+        <v>25.32050620903205</v>
+      </c>
       <c r="AB4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
       <c r="A5">
         <v>599035</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E5">
         <v>3258</v>
@@ -1383,7 +1398,7 @@
         <v>496</v>
       </c>
       <c r="G5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H5">
         <v>16.9425616758</v>
@@ -1392,7 +1407,7 @@
         <v>75.5573732661</v>
       </c>
       <c r="J5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1434,33 +1449,36 @@
         <v>0</v>
       </c>
       <c r="X5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z5" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA5" t="s">
         <v>205</v>
       </c>
+      <c r="AA5">
+        <v>23.04988947440692</v>
+      </c>
       <c r="AB5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
       <c r="A6">
         <v>599036</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E6">
         <v>2163</v>
@@ -1469,7 +1487,7 @@
         <v>379</v>
       </c>
       <c r="G6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H6">
         <v>16.9797332647</v>
@@ -1478,7 +1496,7 @@
         <v>75.5800961512</v>
       </c>
       <c r="J6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1520,33 +1538,36 @@
         <v>0</v>
       </c>
       <c r="X6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z6" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA6" t="s">
         <v>205</v>
       </c>
+      <c r="AA6">
+        <v>24.49607125064694</v>
+      </c>
       <c r="AB6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
       <c r="A7">
         <v>599037</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E7">
         <v>1357</v>
@@ -1555,7 +1576,7 @@
         <v>277</v>
       </c>
       <c r="G7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H7">
         <v>16.9478859749</v>
@@ -1564,7 +1585,7 @@
         <v>75.5782196259</v>
       </c>
       <c r="J7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1606,33 +1627,36 @@
         <v>0</v>
       </c>
       <c r="X7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z7" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA7" t="s">
         <v>205</v>
       </c>
+      <c r="AA7">
+        <v>21.89355230653786</v>
+      </c>
       <c r="AB7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
       <c r="A8">
         <v>599038</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E8">
         <v>6643</v>
@@ -1641,7 +1665,7 @@
         <v>1056</v>
       </c>
       <c r="G8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H8">
         <v>16.9380227738</v>
@@ -1650,13 +1674,13 @@
         <v>75.61925916609999</v>
       </c>
       <c r="J8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1692,33 +1716,36 @@
         <v>0</v>
       </c>
       <c r="X8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z8" t="s">
         <v>25</v>
       </c>
-      <c r="AA8" t="s">
-        <v>205</v>
+      <c r="AA8">
+        <v>18.29735718737609</v>
       </c>
       <c r="AB8" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
       <c r="A9">
         <v>599039</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E9">
         <v>7059</v>
@@ -1727,7 +1754,7 @@
         <v>1220</v>
       </c>
       <c r="G9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H9">
         <v>16.9240478652</v>
@@ -1736,13 +1763,13 @@
         <v>75.6957014882</v>
       </c>
       <c r="J9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -1778,33 +1805,36 @@
         <v>0</v>
       </c>
       <c r="X9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z9" t="s">
         <v>25</v>
       </c>
-      <c r="AA9" t="s">
-        <v>205</v>
+      <c r="AA9">
+        <v>13.65936221198203</v>
       </c>
       <c r="AB9" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
       <c r="A10">
         <v>599040</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E10">
         <v>4400</v>
@@ -1813,7 +1843,7 @@
         <v>719</v>
       </c>
       <c r="G10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H10">
         <v>16.9457507744</v>
@@ -1822,7 +1852,7 @@
         <v>75.6741140843</v>
       </c>
       <c r="J10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1864,33 +1894,36 @@
         <v>0</v>
       </c>
       <c r="X10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y10" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z10" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA10" t="s">
         <v>205</v>
       </c>
+      <c r="AA10">
+        <v>16.53236090530082</v>
+      </c>
       <c r="AB10" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
       <c r="A11">
         <v>599041</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E11">
         <v>5429</v>
@@ -1899,7 +1932,7 @@
         <v>922</v>
       </c>
       <c r="G11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H11">
         <v>16.9141392074</v>
@@ -1908,7 +1941,7 @@
         <v>75.7570283479</v>
       </c>
       <c r="J11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1950,33 +1983,36 @@
         <v>0</v>
       </c>
       <c r="X11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z11" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA11" t="s">
         <v>205</v>
       </c>
+      <c r="AA11">
+        <v>13.05337641164145</v>
+      </c>
       <c r="AB11" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
       <c r="A12">
         <v>599042</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E12">
         <v>1451</v>
@@ -1985,7 +2021,7 @@
         <v>281</v>
       </c>
       <c r="G12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H12">
         <v>16.875109842</v>
@@ -1994,13 +2030,13 @@
         <v>75.73798149860001</v>
       </c>
       <c r="J12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -2036,33 +2072,36 @@
         <v>0</v>
       </c>
       <c r="X12" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y12" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z12" t="s">
         <v>25</v>
       </c>
-      <c r="AA12" t="s">
-        <v>205</v>
+      <c r="AA12">
+        <v>8.308492897602997</v>
       </c>
       <c r="AB12" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
       <c r="A13">
         <v>599043</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E13">
         <v>4068</v>
@@ -2071,7 +2110,7 @@
         <v>806</v>
       </c>
       <c r="G13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H13">
         <v>16.8822446079</v>
@@ -2080,7 +2119,7 @@
         <v>75.6578569214</v>
       </c>
       <c r="J13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -2122,33 +2161,36 @@
         <v>0</v>
       </c>
       <c r="X13" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y13" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z13" t="s">
         <v>25</v>
       </c>
-      <c r="AA13" t="s">
-        <v>205</v>
+      <c r="AA13">
+        <v>10.86249921481709</v>
       </c>
       <c r="AB13" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
       <c r="A14">
         <v>599044</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E14">
         <v>1788</v>
@@ -2157,7 +2199,7 @@
         <v>305</v>
       </c>
       <c r="G14" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H14">
         <v>16.8783964205</v>
@@ -2166,7 +2208,7 @@
         <v>75.6113496703</v>
       </c>
       <c r="J14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -2208,33 +2250,36 @@
         <v>0</v>
       </c>
       <c r="X14" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y14" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z14" t="s">
         <v>25</v>
       </c>
-      <c r="AA14" t="s">
-        <v>205</v>
+      <c r="AA14">
+        <v>14.07167407341032</v>
       </c>
       <c r="AB14" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
       <c r="A15">
         <v>599045</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E15">
         <v>2072</v>
@@ -2243,7 +2288,7 @@
         <v>311</v>
       </c>
       <c r="G15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H15">
         <v>16.8983649242</v>
@@ -2252,7 +2297,7 @@
         <v>75.6160217093</v>
       </c>
       <c r="J15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -2294,33 +2339,36 @@
         <v>0</v>
       </c>
       <c r="X15" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y15" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z15" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA15" t="s">
         <v>205</v>
       </c>
+      <c r="AA15">
+        <v>15.13836745158223</v>
+      </c>
       <c r="AB15" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
       <c r="A16">
         <v>599046</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E16">
         <v>2162</v>
@@ -2329,7 +2377,7 @@
         <v>408</v>
       </c>
       <c r="G16" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H16">
         <v>16.8890221075</v>
@@ -2338,7 +2386,7 @@
         <v>75.5827984884</v>
       </c>
       <c r="J16" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -2380,33 +2428,36 @@
         <v>0</v>
       </c>
       <c r="X16" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y16" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z16" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA16" t="s">
         <v>205</v>
       </c>
+      <c r="AA16">
+        <v>17.2372166482487</v>
+      </c>
       <c r="AB16" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29">
       <c r="A17">
         <v>599047</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E17">
         <v>1208</v>
@@ -2415,7 +2466,7 @@
         <v>228</v>
       </c>
       <c r="G17" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H17">
         <v>16.8928965007</v>
@@ -2424,7 +2475,7 @@
         <v>75.5426434261</v>
       </c>
       <c r="J17" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2466,33 +2517,36 @@
         <v>0</v>
       </c>
       <c r="X17" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y17" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z17" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA17" t="s">
         <v>205</v>
       </c>
+      <c r="AA17">
+        <v>21.1272843629901</v>
+      </c>
       <c r="AB17" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29">
       <c r="A18">
         <v>599048</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E18">
         <v>1359</v>
@@ -2501,7 +2555,7 @@
         <v>257</v>
       </c>
       <c r="G18" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H18">
         <v>16.8196800873</v>
@@ -2510,7 +2564,7 @@
         <v>75.58008243899999</v>
       </c>
       <c r="J18" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2552,33 +2606,36 @@
         <v>0</v>
       </c>
       <c r="X18" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y18" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z18" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA18" t="s">
         <v>205</v>
       </c>
+      <c r="AA18">
+        <v>14.74838062628423</v>
+      </c>
       <c r="AB18" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29">
       <c r="A19">
         <v>599049</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D19" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E19">
         <v>3151</v>
@@ -2587,7 +2644,7 @@
         <v>532</v>
       </c>
       <c r="G19" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H19">
         <v>16.8927971337</v>
@@ -2596,7 +2653,7 @@
         <v>75.5175577063</v>
       </c>
       <c r="J19" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2638,33 +2695,36 @@
         <v>0</v>
       </c>
       <c r="X19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z19" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA19" t="s">
         <v>205</v>
       </c>
+      <c r="AA19">
+        <v>23.5084838075149</v>
+      </c>
       <c r="AB19" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29">
       <c r="A20">
         <v>599050</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D20" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E20">
         <v>6084</v>
@@ -2673,7 +2733,7 @@
         <v>1103</v>
       </c>
       <c r="G20" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H20">
         <v>16.8732210651</v>
@@ -2682,7 +2742,7 @@
         <v>75.4680309288</v>
       </c>
       <c r="J20" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2724,33 +2784,36 @@
         <v>0</v>
       </c>
       <c r="X20" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y20" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z20" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA20" t="s">
         <v>205</v>
       </c>
+      <c r="AA20">
+        <v>27.67884056519474</v>
+      </c>
       <c r="AB20" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29">
       <c r="A21">
         <v>599052</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D21" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E21">
         <v>2472</v>
@@ -2759,7 +2822,7 @@
         <v>523</v>
       </c>
       <c r="G21" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H21">
         <v>16.7665091199</v>
@@ -2768,7 +2831,7 @@
         <v>75.4821511463</v>
       </c>
       <c r="J21" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2810,33 +2873,36 @@
         <v>0</v>
       </c>
       <c r="X21" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y21" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z21" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA21" t="s">
         <v>205</v>
       </c>
+      <c r="AA21">
+        <v>25.38515926775105</v>
+      </c>
       <c r="AB21" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29">
       <c r="A22">
         <v>599053</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D22" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E22">
         <v>3829</v>
@@ -2845,7 +2911,7 @@
         <v>748</v>
       </c>
       <c r="G22" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H22">
         <v>16.8690814812</v>
@@ -2854,7 +2920,7 @@
         <v>75.56574506130001</v>
       </c>
       <c r="J22" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2896,33 +2962,36 @@
         <v>0</v>
       </c>
       <c r="X22" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y22" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z22" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA22" t="s">
         <v>205</v>
       </c>
+      <c r="AA22">
+        <v>17.74793027859644</v>
+      </c>
       <c r="AB22" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29">
       <c r="A23">
         <v>599054</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E23">
         <v>1066</v>
@@ -2931,7 +3000,7 @@
         <v>161</v>
       </c>
       <c r="G23" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H23">
         <v>16.7845414825</v>
@@ -2940,7 +3009,7 @@
         <v>75.5234904985</v>
       </c>
       <c r="J23" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2982,33 +3051,36 @@
         <v>0</v>
       </c>
       <c r="X23" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y23" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z23" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA23" t="s">
         <v>205</v>
       </c>
+      <c r="AA23">
+        <v>20.75864526487226</v>
+      </c>
       <c r="AB23" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29">
       <c r="A24">
         <v>599055</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D24" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E24">
         <v>2444</v>
@@ -3017,7 +3089,7 @@
         <v>450</v>
       </c>
       <c r="G24" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H24">
         <v>16.7966873144</v>
@@ -3026,7 +3098,7 @@
         <v>75.56561946630001</v>
       </c>
       <c r="J24" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -3068,33 +3140,36 @@
         <v>0</v>
       </c>
       <c r="X24" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y24" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z24" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA24" t="s">
         <v>205</v>
       </c>
+      <c r="AA24">
+        <v>16.18691863533992</v>
+      </c>
       <c r="AB24" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29">
       <c r="A25">
         <v>599056</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D25" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E25">
         <v>11984</v>
@@ -3103,7 +3178,7 @@
         <v>2235</v>
       </c>
       <c r="G25" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H25">
         <v>16.8361346334</v>
@@ -3112,7 +3187,7 @@
         <v>75.5305920556</v>
       </c>
       <c r="J25" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -3154,33 +3229,36 @@
         <v>0</v>
       </c>
       <c r="X25" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y25" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z25" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA25" t="s">
         <v>205</v>
       </c>
+      <c r="AA25">
+        <v>20.2365663393414</v>
+      </c>
       <c r="AB25" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29">
       <c r="A26">
         <v>599057</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D26" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E26">
         <v>1347</v>
@@ -3189,7 +3267,7 @@
         <v>288</v>
       </c>
       <c r="G26" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H26">
         <v>16.8259281284</v>
@@ -3198,7 +3276,7 @@
         <v>75.4835905817</v>
       </c>
       <c r="J26" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -3240,33 +3318,36 @@
         <v>0</v>
       </c>
       <c r="X26" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y26" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z26" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA26" t="s">
         <v>205</v>
       </c>
+      <c r="AA26">
+        <v>25.03189661634505</v>
+      </c>
       <c r="AB26" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29">
       <c r="A27">
         <v>599058</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E27">
         <v>5682</v>
@@ -3275,7 +3356,7 @@
         <v>1107</v>
       </c>
       <c r="G27" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H27">
         <v>16.8223334671</v>
@@ -3284,7 +3365,7 @@
         <v>75.62547489150001</v>
       </c>
       <c r="J27" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -3326,33 +3407,36 @@
         <v>0</v>
       </c>
       <c r="X27" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y27" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z27" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA27" t="s">
         <v>205</v>
       </c>
+      <c r="AA27">
+        <v>10.0325917907319</v>
+      </c>
       <c r="AB27" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29">
       <c r="A28">
         <v>599059</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E28">
         <v>2943</v>
@@ -3361,7 +3445,7 @@
         <v>570</v>
       </c>
       <c r="G28" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H28">
         <v>16.7653991817</v>
@@ -3370,7 +3454,7 @@
         <v>75.6336830597</v>
       </c>
       <c r="J28" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -3412,33 +3496,36 @@
         <v>0</v>
       </c>
       <c r="X28" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y28" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z28" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA28" t="s">
         <v>205</v>
       </c>
+      <c r="AA28">
+        <v>9.857574975373748</v>
+      </c>
       <c r="AB28" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29">
       <c r="A29">
         <v>599060</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E29">
         <v>4936</v>
@@ -3447,7 +3534,7 @@
         <v>885</v>
       </c>
       <c r="G29" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H29">
         <v>16.8258290909</v>
@@ -3456,13 +3543,13 @@
         <v>75.65561904090001</v>
       </c>
       <c r="J29" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K29">
         <v>3</v>
       </c>
       <c r="L29" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -3498,33 +3585,36 @@
         <v>0</v>
       </c>
       <c r="X29" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y29" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z29" t="s">
         <v>25</v>
       </c>
-      <c r="AA29" t="s">
-        <v>205</v>
+      <c r="AA29">
+        <v>7.062895616423466</v>
       </c>
       <c r="AB29" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29">
       <c r="A30">
         <v>599061</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C30" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E30">
         <v>1684</v>
@@ -3533,7 +3623,7 @@
         <v>252</v>
       </c>
       <c r="G30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H30">
         <v>17.0532515965</v>
@@ -3542,7 +3632,7 @@
         <v>75.6672235456</v>
       </c>
       <c r="J30" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3584,33 +3674,36 @@
         <v>0</v>
       </c>
       <c r="X30" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y30" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z30" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA30" t="s">
         <v>205</v>
       </c>
+      <c r="AA30">
+        <v>28.33712066918588</v>
+      </c>
       <c r="AB30" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29">
       <c r="A31">
         <v>599062</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E31">
         <v>9902</v>
@@ -3619,7 +3712,7 @@
         <v>1763</v>
       </c>
       <c r="G31" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H31">
         <v>17.0419924242</v>
@@ -3628,7 +3721,7 @@
         <v>75.7040737228</v>
       </c>
       <c r="J31" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3670,33 +3763,36 @@
         <v>0</v>
       </c>
       <c r="X31" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y31" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z31" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA31" t="s">
         <v>205</v>
       </c>
+      <c r="AA31">
+        <v>26.61365589433548</v>
+      </c>
       <c r="AB31" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29">
       <c r="A32">
         <v>599063</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C32" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E32">
         <v>2167</v>
@@ -3705,7 +3801,7 @@
         <v>329</v>
       </c>
       <c r="G32" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H32">
         <v>16.9903265336</v>
@@ -3714,7 +3810,7 @@
         <v>75.68518253400001</v>
       </c>
       <c r="J32" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3756,33 +3852,36 @@
         <v>0</v>
       </c>
       <c r="X32" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y32" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z32" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA32" t="s">
         <v>205</v>
       </c>
+      <c r="AA32">
+        <v>21.11264993050206</v>
+      </c>
       <c r="AB32" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="33" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29">
       <c r="A33">
         <v>599064</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C33" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D33" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E33">
         <v>1747</v>
@@ -3791,7 +3890,7 @@
         <v>318</v>
       </c>
       <c r="G33" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H33">
         <v>16.9921587759</v>
@@ -3800,7 +3899,7 @@
         <v>75.72443626099999</v>
       </c>
       <c r="J33" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3842,33 +3941,36 @@
         <v>0</v>
       </c>
       <c r="X33" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y33" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z33" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>205</v>
+        <v>25</v>
+      </c>
+      <c r="AA33">
+        <v>21.04662679424705</v>
       </c>
       <c r="AB33" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="34" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29">
       <c r="A34">
         <v>599065</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C34" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D34" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E34">
         <v>3440</v>
@@ -3877,7 +3979,7 @@
         <v>558</v>
       </c>
       <c r="G34" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H34">
         <v>16.9628767243</v>
@@ -3886,7 +3988,7 @@
         <v>75.71825618690001</v>
       </c>
       <c r="J34" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3928,33 +4030,36 @@
         <v>0</v>
       </c>
       <c r="X34" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y34" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z34" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA34" t="s">
         <v>205</v>
       </c>
+      <c r="AA34">
+        <v>17.77797799408369</v>
+      </c>
       <c r="AB34" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="35" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29">
       <c r="A35">
         <v>599066</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C35" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D35" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E35">
         <v>3355</v>
@@ -3963,7 +4068,7 @@
         <v>575</v>
       </c>
       <c r="G35" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H35">
         <v>17.0418060276</v>
@@ -3972,7 +4077,7 @@
         <v>75.7478584569</v>
       </c>
       <c r="J35" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -4014,33 +4119,36 @@
         <v>0</v>
       </c>
       <c r="X35" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y35" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z35" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA35" t="s">
         <v>205</v>
       </c>
+      <c r="AA35">
+        <v>26.74951852228697</v>
+      </c>
       <c r="AB35" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="36" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29">
       <c r="A36">
         <v>599067</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C36" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E36">
         <v>1296</v>
@@ -4049,7 +4157,7 @@
         <v>287</v>
       </c>
       <c r="G36" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H36">
         <v>17.0023314013</v>
@@ -4058,7 +4166,7 @@
         <v>75.7768460802</v>
       </c>
       <c r="J36" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -4100,33 +4208,36 @@
         <v>0</v>
       </c>
       <c r="X36" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y36" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z36" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA36" t="s">
         <v>205</v>
       </c>
+      <c r="AA36">
+        <v>23.04558687452842</v>
+      </c>
       <c r="AB36" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="37" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29">
       <c r="A37">
         <v>599068</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C37" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D37" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E37">
         <v>1951</v>
@@ -4135,7 +4246,7 @@
         <v>356</v>
       </c>
       <c r="G37" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H37">
         <v>16.9847045201</v>
@@ -4144,7 +4255,7 @@
         <v>75.75608562319999</v>
       </c>
       <c r="J37" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -4186,33 +4297,36 @@
         <v>0</v>
       </c>
       <c r="X37" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y37" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z37" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA37" t="s">
         <v>205</v>
       </c>
+      <c r="AA37">
+        <v>20.61698687944173</v>
+      </c>
       <c r="AB37" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="38" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29">
       <c r="A38">
         <v>599069</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C38" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D38" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E38">
         <v>2473</v>
@@ -4221,7 +4335,7 @@
         <v>453</v>
       </c>
       <c r="G38" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H38">
         <v>16.9467734125</v>
@@ -4230,7 +4344,7 @@
         <v>75.75276588</v>
       </c>
       <c r="J38" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -4272,33 +4386,36 @@
         <v>0</v>
       </c>
       <c r="X38" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y38" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z38" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA38" t="s">
         <v>205</v>
       </c>
+      <c r="AA38">
+        <v>16.42075498860058</v>
+      </c>
       <c r="AB38" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="39" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29">
       <c r="A39">
         <v>599070</v>
       </c>
       <c r="B39" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C39" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D39" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E39">
         <v>2369</v>
@@ -4307,7 +4424,7 @@
         <v>424</v>
       </c>
       <c r="G39" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H39">
         <v>16.9618314953</v>
@@ -4316,7 +4433,7 @@
         <v>75.79202247169999</v>
       </c>
       <c r="J39" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -4358,33 +4475,36 @@
         <v>0</v>
       </c>
       <c r="X39" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y39" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z39" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA39" t="s">
         <v>205</v>
       </c>
+      <c r="AA39">
+        <v>19.35823386240845</v>
+      </c>
       <c r="AB39" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="40" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29">
       <c r="A40">
         <v>599071</v>
       </c>
       <c r="B40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C40" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D40" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E40">
         <v>1690</v>
@@ -4393,7 +4513,7 @@
         <v>293</v>
       </c>
       <c r="G40" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H40">
         <v>16.989764352</v>
@@ -4402,7 +4522,7 @@
         <v>75.8001374354</v>
       </c>
       <c r="J40" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -4444,33 +4564,36 @@
         <v>0</v>
       </c>
       <c r="X40" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y40" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z40" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA40" t="s">
         <v>205</v>
       </c>
+      <c r="AA40">
+        <v>22.55043626411486</v>
+      </c>
       <c r="AB40" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="41" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29">
       <c r="A41">
         <v>599072</v>
       </c>
       <c r="B41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C41" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D41" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E41">
         <v>2043</v>
@@ -4479,7 +4602,7 @@
         <v>391</v>
       </c>
       <c r="G41" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H41">
         <v>16.9898807045</v>
@@ -4488,7 +4611,7 @@
         <v>75.8171945492</v>
       </c>
       <c r="J41" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4530,33 +4653,36 @@
         <v>0</v>
       </c>
       <c r="X41" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y41" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z41" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA41" t="s">
         <v>205</v>
       </c>
+      <c r="AA41">
+        <v>23.3291658332181</v>
+      </c>
       <c r="AB41" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="42" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29">
       <c r="A42">
         <v>599073</v>
       </c>
       <c r="B42" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C42" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D42" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E42">
         <v>8549</v>
@@ -4565,7 +4691,7 @@
         <v>1815</v>
       </c>
       <c r="G42" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H42">
         <v>16.9367419218</v>
@@ -4574,7 +4700,7 @@
         <v>75.8285375012</v>
       </c>
       <c r="J42" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -4616,33 +4742,36 @@
         <v>0</v>
       </c>
       <c r="X42" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y42" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z42" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA42" t="s">
         <v>205</v>
       </c>
+      <c r="AA42">
+        <v>18.99148604842725</v>
+      </c>
       <c r="AB42" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="43" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29">
       <c r="A43">
         <v>599074</v>
       </c>
       <c r="B43" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C43" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D43" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E43">
         <v>1306</v>
@@ -4651,7 +4780,7 @@
         <v>251</v>
       </c>
       <c r="G43" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H43">
         <v>16.9296220339</v>
@@ -4660,7 +4789,7 @@
         <v>75.7952597748</v>
       </c>
       <c r="J43" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -4702,33 +4831,36 @@
         <v>0</v>
       </c>
       <c r="X43" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y43" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z43" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA43" t="s">
         <v>205</v>
       </c>
+      <c r="AA43">
+        <v>16.32935206510183</v>
+      </c>
       <c r="AB43" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="44" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29">
       <c r="A44">
         <v>599075</v>
       </c>
       <c r="B44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C44" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D44" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E44">
         <v>875</v>
@@ -4737,7 +4869,7 @@
         <v>152</v>
       </c>
       <c r="G44" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H44">
         <v>16.9192380961</v>
@@ -4746,7 +4878,7 @@
         <v>75.7837043083</v>
       </c>
       <c r="J44" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -4788,33 +4920,36 @@
         <v>0</v>
       </c>
       <c r="X44" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y44" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z44" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA44" t="s">
         <v>205</v>
       </c>
+      <c r="AA44">
+        <v>14.71875090222211</v>
+      </c>
       <c r="AB44" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="45" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29">
       <c r="A45">
         <v>599076</v>
       </c>
       <c r="B45" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C45" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D45" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E45">
         <v>5882</v>
@@ -4823,7 +4958,7 @@
         <v>981</v>
       </c>
       <c r="G45" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H45">
         <v>16.8829417352</v>
@@ -4832,7 +4967,7 @@
         <v>75.7801237739</v>
       </c>
       <c r="J45" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -4874,33 +5009,36 @@
         <v>0</v>
       </c>
       <c r="X45" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y45" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z45" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA45" t="s">
-        <v>206</v>
+        <v>205</v>
+      </c>
+      <c r="AA45">
+        <v>11.10790839446362</v>
       </c>
       <c r="AB45" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="46" spans="1:28">
+        <v>207</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29">
       <c r="A46">
         <v>599077</v>
       </c>
       <c r="B46" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C46" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D46" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E46">
         <v>3220</v>
@@ -4909,7 +5047,7 @@
         <v>610</v>
       </c>
       <c r="G46" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H46">
         <v>16.8933881799</v>
@@ -4918,7 +5056,7 @@
         <v>75.84488823380001</v>
       </c>
       <c r="J46" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -4960,33 +5098,36 @@
         <v>0</v>
       </c>
       <c r="X46" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y46" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z46" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA46" t="s">
         <v>205</v>
       </c>
+      <c r="AA46">
+        <v>16.8730754179922</v>
+      </c>
       <c r="AB46" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="47" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29">
       <c r="A47">
         <v>599078</v>
       </c>
       <c r="B47" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C47" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D47" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E47">
         <v>563</v>
@@ -4995,7 +5136,7 @@
         <v>118</v>
       </c>
       <c r="G47" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H47">
         <v>16.9334297846</v>
@@ -5004,7 +5145,7 @@
         <v>75.86502143280001</v>
       </c>
       <c r="J47" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -5046,33 +5187,36 @@
         <v>0</v>
       </c>
       <c r="X47" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y47" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z47" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA47" t="s">
         <v>205</v>
       </c>
+      <c r="AA47">
+        <v>21.36920612827487</v>
+      </c>
       <c r="AB47" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="48" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29">
       <c r="A48">
         <v>599079</v>
       </c>
       <c r="B48" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C48" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D48" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E48">
         <v>2583</v>
@@ -5081,7 +5225,7 @@
         <v>517</v>
       </c>
       <c r="G48" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H48">
         <v>16.9518265696</v>
@@ -5090,7 +5234,7 @@
         <v>75.9027421982</v>
       </c>
       <c r="J48" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -5132,33 +5276,36 @@
         <v>0</v>
       </c>
       <c r="X48" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y48" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z48" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA48" t="s">
         <v>205</v>
       </c>
+      <c r="AA48">
+        <v>25.73371656616238</v>
+      </c>
       <c r="AB48" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="49" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29">
       <c r="A49">
         <v>599080</v>
       </c>
       <c r="B49" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C49" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D49" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E49">
         <v>4593</v>
@@ -5167,7 +5314,7 @@
         <v>899</v>
       </c>
       <c r="G49" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H49">
         <v>16.9133642082</v>
@@ -5176,7 +5323,7 @@
         <v>75.90643143219999</v>
       </c>
       <c r="J49" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -5218,33 +5365,36 @@
         <v>0</v>
       </c>
       <c r="X49" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y49" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z49" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA49" t="s">
         <v>205</v>
       </c>
+      <c r="AA49">
+        <v>23.5514059905374</v>
+      </c>
       <c r="AB49" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="50" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29">
       <c r="A50">
         <v>599081</v>
       </c>
       <c r="B50" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C50" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D50" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E50">
         <v>5572</v>
@@ -5253,7 +5403,7 @@
         <v>920</v>
       </c>
       <c r="G50" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H50">
         <v>16.8699419346</v>
@@ -5262,7 +5412,7 @@
         <v>75.9013636471</v>
       </c>
       <c r="J50" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -5304,33 +5454,36 @@
         <v>0</v>
       </c>
       <c r="X50" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y50" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z50" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA50" t="s">
         <v>205</v>
       </c>
+      <c r="AA50">
+        <v>20.93251014450957</v>
+      </c>
       <c r="AB50" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="51" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29">
       <c r="A51">
         <v>599082</v>
       </c>
       <c r="B51" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C51" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D51" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -5339,7 +5492,7 @@
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H51">
         <v>16.7760146125</v>
@@ -5348,7 +5501,7 @@
         <v>75.7219044738</v>
       </c>
       <c r="J51" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -5390,33 +5543,36 @@
         <v>0</v>
       </c>
       <c r="X51" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y51" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z51" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA51" t="s">
         <v>205</v>
       </c>
+      <c r="AA51">
+        <v>3.036082711984386</v>
+      </c>
       <c r="AB51" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="52" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC51" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29">
       <c r="A52">
         <v>599083</v>
       </c>
       <c r="B52" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C52" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D52" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E52">
         <v>1645</v>
@@ -5425,7 +5581,7 @@
         <v>300</v>
       </c>
       <c r="G52" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H52">
         <v>16.7532567786</v>
@@ -5434,7 +5590,7 @@
         <v>75.67124869520001</v>
       </c>
       <c r="J52" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -5476,33 +5632,36 @@
         <v>0</v>
       </c>
       <c r="X52" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y52" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z52" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA52" t="s">
         <v>205</v>
       </c>
+      <c r="AA52">
+        <v>7.407891358218608</v>
+      </c>
       <c r="AB52" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="53" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29">
       <c r="A53">
         <v>599084</v>
       </c>
       <c r="B53" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C53" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D53" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E53">
         <v>108</v>
@@ -5511,7 +5670,7 @@
         <v>22</v>
       </c>
       <c r="G53" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H53">
         <v>16.8054003426</v>
@@ -5520,7 +5679,7 @@
         <v>75.7551964522</v>
       </c>
       <c r="J53" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K53">
         <v>0</v>
@@ -5562,33 +5721,36 @@
         <v>0</v>
       </c>
       <c r="X53" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y53" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z53" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA53" t="s">
-        <v>206</v>
+        <v>25</v>
+      </c>
+      <c r="AA53">
+        <v>4.017410393810537</v>
       </c>
       <c r="AB53" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="54" spans="1:28">
+        <v>207</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29">
       <c r="A54">
         <v>599085</v>
       </c>
       <c r="B54" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C54" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D54" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E54">
         <v>4793</v>
@@ -5597,7 +5759,7 @@
         <v>838</v>
       </c>
       <c r="G54" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H54">
         <v>16.8386043895</v>
@@ -5606,13 +5768,13 @@
         <v>75.76741789819999</v>
       </c>
       <c r="J54" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K54">
         <v>16</v>
       </c>
       <c r="L54" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M54">
         <v>0</v>
@@ -5624,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="P54" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q54">
         <v>198</v>
@@ -5648,33 +5810,36 @@
         <v>38</v>
       </c>
       <c r="X54" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y54" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z54" t="s">
         <v>25</v>
       </c>
-      <c r="AA54" t="s">
-        <v>205</v>
+      <c r="AA54">
+        <v>6.622824781952447</v>
       </c>
       <c r="AB54" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="55" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29">
       <c r="A55">
         <v>599086</v>
       </c>
       <c r="B55" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C55" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D55" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E55">
         <v>3490</v>
@@ -5683,7 +5848,7 @@
         <v>621</v>
       </c>
       <c r="G55" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H55">
         <v>16.8375910933</v>
@@ -5692,7 +5857,7 @@
         <v>75.78752105309999</v>
       </c>
       <c r="J55" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K55">
         <v>3</v>
@@ -5704,13 +5869,13 @@
         <v>0</v>
       </c>
       <c r="N55" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O55">
         <v>0</v>
       </c>
       <c r="P55" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q55">
         <v>60</v>
@@ -5734,33 +5899,36 @@
         <v>12</v>
       </c>
       <c r="X55" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y55" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z55" t="s">
         <v>25</v>
       </c>
-      <c r="AA55" t="s">
-        <v>205</v>
+      <c r="AA55">
+        <v>8.383349206574772</v>
       </c>
       <c r="AB55" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="56" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29">
       <c r="A56">
         <v>599087</v>
       </c>
       <c r="B56" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C56" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D56" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E56">
         <v>4164</v>
@@ -5769,7 +5937,7 @@
         <v>839</v>
       </c>
       <c r="G56" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H56">
         <v>16.834552909</v>
@@ -5778,13 +5946,13 @@
         <v>75.8148358433</v>
       </c>
       <c r="J56" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K56">
         <v>1</v>
       </c>
       <c r="L56" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M56">
         <v>0</v>
@@ -5820,33 +5988,36 @@
         <v>0</v>
       </c>
       <c r="X56" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y56" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z56" t="s">
         <v>25</v>
       </c>
-      <c r="AA56" t="s">
-        <v>205</v>
+      <c r="AA56">
+        <v>10.93442135319977</v>
       </c>
       <c r="AB56" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="57" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29">
       <c r="A57">
         <v>599088</v>
       </c>
       <c r="B57" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C57" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D57" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E57">
         <v>1153</v>
@@ -5855,7 +6026,7 @@
         <v>204</v>
       </c>
       <c r="G57" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H57">
         <v>16.8684448406</v>
@@ -5864,7 +6035,7 @@
         <v>75.8456859945</v>
       </c>
       <c r="J57" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K57">
         <v>0</v>
@@ -5906,33 +6077,36 @@
         <v>0</v>
       </c>
       <c r="X57" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y57" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z57" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA57" t="s">
         <v>205</v>
       </c>
+      <c r="AA57">
+        <v>15.45871199444447</v>
+      </c>
       <c r="AB57" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="58" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29">
       <c r="A58">
         <v>599089</v>
       </c>
       <c r="B58" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C58" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D58" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E58">
         <v>1964</v>
@@ -5941,7 +6115,7 @@
         <v>328</v>
       </c>
       <c r="G58" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H58">
         <v>16.8327380907</v>
@@ -5950,7 +6124,7 @@
         <v>75.88112196909999</v>
       </c>
       <c r="J58" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -5992,33 +6166,36 @@
         <v>0</v>
       </c>
       <c r="X58" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y58" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z58" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA58" t="s">
-        <v>205</v>
+        <v>25</v>
+      </c>
+      <c r="AA58">
+        <v>17.72289308142237</v>
       </c>
       <c r="AB58" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="59" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC58" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29">
       <c r="A59">
         <v>599090</v>
       </c>
       <c r="B59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C59" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D59" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E59">
         <v>3050</v>
@@ -6027,7 +6204,7 @@
         <v>576</v>
       </c>
       <c r="G59" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H59">
         <v>16.8016546325</v>
@@ -6036,7 +6213,7 @@
         <v>75.8977612714</v>
       </c>
       <c r="J59" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K59">
         <v>0</v>
@@ -6078,33 +6255,36 @@
         <v>0</v>
       </c>
       <c r="X59" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y59" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z59" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA59" t="s">
         <v>205</v>
       </c>
+      <c r="AA59">
+        <v>19.18483829275582</v>
+      </c>
       <c r="AB59" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="60" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC59" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29">
       <c r="A60">
         <v>599091</v>
       </c>
       <c r="B60" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C60" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D60" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E60">
         <v>1469</v>
@@ -6113,7 +6293,7 @@
         <v>240</v>
       </c>
       <c r="G60" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H60">
         <v>16.8337431358</v>
@@ -6122,7 +6302,7 @@
         <v>75.9287469969</v>
       </c>
       <c r="J60" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K60">
         <v>0</v>
@@ -6164,33 +6344,36 @@
         <v>0</v>
       </c>
       <c r="X60" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y60" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z60" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA60" t="s">
         <v>205</v>
       </c>
+      <c r="AA60">
+        <v>22.73919287102963</v>
+      </c>
       <c r="AB60" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="61" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29">
       <c r="A61">
         <v>599092</v>
       </c>
       <c r="B61" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C61" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D61" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E61">
         <v>4087</v>
@@ -6199,7 +6382,7 @@
         <v>677</v>
       </c>
       <c r="G61" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H61">
         <v>16.8952806923</v>
@@ -6208,7 +6391,7 @@
         <v>75.9644436252</v>
       </c>
       <c r="J61" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K61">
         <v>0</v>
@@ -6250,33 +6433,36 @@
         <v>0</v>
       </c>
       <c r="X61" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y61" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z61" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA61" t="s">
         <v>205</v>
       </c>
+      <c r="AA61">
+        <v>28.20856886141097</v>
+      </c>
       <c r="AB61" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="62" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29">
       <c r="A62">
         <v>599093</v>
       </c>
       <c r="B62" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C62" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D62" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E62">
         <v>3068</v>
@@ -6285,7 +6471,7 @@
         <v>567</v>
       </c>
       <c r="G62" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H62">
         <v>16.8370874243</v>
@@ -6294,7 +6480,7 @@
         <v>75.995188715</v>
       </c>
       <c r="J62" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K62">
         <v>0</v>
@@ -6336,33 +6522,36 @@
         <v>0</v>
       </c>
       <c r="X62" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y62" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z62" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA62" t="s">
         <v>205</v>
       </c>
+      <c r="AA62">
+        <v>29.79455116662648</v>
+      </c>
       <c r="AB62" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="63" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29">
       <c r="A63">
         <v>599094</v>
       </c>
       <c r="B63" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C63" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D63" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E63">
         <v>6553</v>
@@ -6371,7 +6560,7 @@
         <v>1188</v>
       </c>
       <c r="G63" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H63">
         <v>16.8139246182</v>
@@ -6380,7 +6569,7 @@
         <v>75.96773576770001</v>
       </c>
       <c r="J63" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K63">
         <v>0</v>
@@ -6422,33 +6611,36 @@
         <v>0</v>
       </c>
       <c r="X63" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y63" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z63" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA63" t="s">
         <v>205</v>
       </c>
+      <c r="AA63">
+        <v>26.65972922039782</v>
+      </c>
       <c r="AB63" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="64" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC63" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29">
       <c r="A64">
         <v>599095</v>
       </c>
       <c r="B64" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C64" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D64" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E64">
         <v>4466</v>
@@ -6457,7 +6649,7 @@
         <v>747</v>
       </c>
       <c r="G64" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H64">
         <v>16.7920146989</v>
@@ -6466,7 +6658,7 @@
         <v>75.92791042259999</v>
       </c>
       <c r="J64" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K64">
         <v>0</v>
@@ -6508,33 +6700,36 @@
         <v>0</v>
       </c>
       <c r="X64" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y64" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z64" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA64" t="s">
         <v>205</v>
       </c>
+      <c r="AA64">
+        <v>22.42740707259931</v>
+      </c>
       <c r="AB64" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="65" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC64" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29">
       <c r="A65">
         <v>599096</v>
       </c>
       <c r="B65" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C65" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D65" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E65">
         <v>2039</v>
@@ -6543,7 +6738,7 @@
         <v>423</v>
       </c>
       <c r="G65" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H65">
         <v>16.7963700377</v>
@@ -6552,7 +6747,7 @@
         <v>75.87127082889999</v>
       </c>
       <c r="J65" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K65">
         <v>0</v>
@@ -6594,33 +6789,36 @@
         <v>0</v>
       </c>
       <c r="X65" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y65" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z65" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA65" t="s">
         <v>205</v>
       </c>
+      <c r="AA65">
+        <v>16.38121950200029</v>
+      </c>
       <c r="AB65" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="66" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC65" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29">
       <c r="A66">
         <v>599097</v>
       </c>
       <c r="B66" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C66" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D66" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E66">
         <v>3930</v>
@@ -6629,7 +6827,7 @@
         <v>821</v>
       </c>
       <c r="G66" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H66">
         <v>16.8061609251</v>
@@ -6638,13 +6836,13 @@
         <v>75.85198221740001</v>
       </c>
       <c r="J66" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K66">
         <v>1</v>
       </c>
       <c r="L66" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M66">
         <v>0</v>
@@ -6680,33 +6878,36 @@
         <v>0</v>
       </c>
       <c r="X66" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y66" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z66" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA66" t="s">
         <v>205</v>
       </c>
+      <c r="AA66">
+        <v>14.31533370798146</v>
+      </c>
       <c r="AB66" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="67" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC66" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29">
       <c r="A67">
         <v>599098</v>
       </c>
       <c r="B67" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C67" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D67" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E67">
         <v>2685</v>
@@ -6715,7 +6916,7 @@
         <v>447</v>
       </c>
       <c r="G67" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H67">
         <v>16.8121714556</v>
@@ -6724,7 +6925,7 @@
         <v>75.833757846</v>
       </c>
       <c r="J67" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K67">
         <v>0</v>
@@ -6766,33 +6967,36 @@
         <v>0</v>
       </c>
       <c r="X67" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y67" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z67" t="s">
         <v>25</v>
       </c>
-      <c r="AA67" t="s">
-        <v>205</v>
+      <c r="AA67">
+        <v>12.41288516098124</v>
       </c>
       <c r="AB67" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="68" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC67" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29">
       <c r="A68">
         <v>599099</v>
       </c>
       <c r="B68" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C68" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D68" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E68">
         <v>955</v>
@@ -6801,7 +7005,7 @@
         <v>183</v>
       </c>
       <c r="G68" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H68">
         <v>16.775051547</v>
@@ -6810,7 +7014,7 @@
         <v>75.8128509676</v>
       </c>
       <c r="J68" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K68">
         <v>0</v>
@@ -6852,33 +7056,36 @@
         <v>0</v>
       </c>
       <c r="X68" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y68" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z68" t="s">
         <v>25</v>
       </c>
-      <c r="AA68" t="s">
-        <v>205</v>
+      <c r="AA68">
+        <v>10.61161979983839</v>
       </c>
       <c r="AB68" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="69" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC68" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29">
       <c r="A69">
         <v>599100</v>
       </c>
       <c r="B69" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C69" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D69" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E69">
         <v>387</v>
@@ -6887,7 +7094,7 @@
         <v>42</v>
       </c>
       <c r="G69" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H69">
         <v>16.7730385533</v>
@@ -6896,7 +7103,7 @@
         <v>75.73921594390001</v>
       </c>
       <c r="J69" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K69">
         <v>0</v>
@@ -6938,33 +7145,36 @@
         <v>0</v>
       </c>
       <c r="X69" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y69" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z69" t="s">
         <v>25</v>
       </c>
-      <c r="AA69" t="s">
-        <v>206</v>
+      <c r="AA69">
+        <v>4.052438752463292</v>
       </c>
       <c r="AB69" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC69" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="70" spans="1:28">
+    <row r="70" spans="1:29">
       <c r="A70">
         <v>599101</v>
       </c>
       <c r="B70" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C70" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D70" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E70">
         <v>6179</v>
@@ -6973,7 +7183,7 @@
         <v>1146</v>
       </c>
       <c r="G70" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H70">
         <v>16.729456886</v>
@@ -6982,13 +7192,13 @@
         <v>75.7127055973</v>
       </c>
       <c r="J70" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K70">
         <v>11</v>
       </c>
       <c r="L70" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M70">
         <v>0</v>
@@ -7000,7 +7210,7 @@
         <v>0</v>
       </c>
       <c r="P70" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q70">
         <v>98</v>
@@ -7024,33 +7234,36 @@
         <v>31</v>
       </c>
       <c r="X70" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y70" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z70" t="s">
         <v>25</v>
       </c>
-      <c r="AA70" t="s">
-        <v>205</v>
+      <c r="AA70">
+        <v>8.193463741945241</v>
       </c>
       <c r="AB70" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="71" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC70" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29">
       <c r="A71">
         <v>599102</v>
       </c>
       <c r="B71" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C71" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D71" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E71">
         <v>5235</v>
@@ -7059,7 +7272,7 @@
         <v>1033</v>
       </c>
       <c r="G71" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H71">
         <v>16.731063208</v>
@@ -7068,7 +7281,7 @@
         <v>75.7532562725</v>
       </c>
       <c r="J71" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K71">
         <v>0</v>
@@ -7110,33 +7323,36 @@
         <v>0</v>
       </c>
       <c r="X71" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y71" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z71" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA71" t="s">
-        <v>205</v>
+        <v>25</v>
+      </c>
+      <c r="AA71">
+        <v>8.8566089127007</v>
       </c>
       <c r="AB71" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="72" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC71" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29">
       <c r="A72">
         <v>599103</v>
       </c>
       <c r="B72" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C72" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D72" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E72">
         <v>3497</v>
@@ -7145,7 +7361,7 @@
         <v>605</v>
       </c>
       <c r="G72" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H72">
         <v>16.7255700893</v>
@@ -7154,7 +7370,7 @@
         <v>75.7868644278</v>
       </c>
       <c r="J72" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K72">
         <v>0</v>
@@ -7196,33 +7412,36 @@
         <v>0</v>
       </c>
       <c r="X72" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y72" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z72" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA72" t="s">
         <v>205</v>
       </c>
+      <c r="AA72">
+        <v>11.3403046386471</v>
+      </c>
       <c r="AB72" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="73" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC72" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29">
       <c r="A73">
         <v>599104</v>
       </c>
       <c r="B73" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C73" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D73" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E73">
         <v>2270</v>
@@ -7231,7 +7450,7 @@
         <v>405</v>
       </c>
       <c r="G73" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H73">
         <v>16.7512159309</v>
@@ -7240,7 +7459,7 @@
         <v>75.7956280936</v>
       </c>
       <c r="J73" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K73">
         <v>0</v>
@@ -7282,33 +7501,36 @@
         <v>0</v>
       </c>
       <c r="X73" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y73" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z73" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA73" t="s">
         <v>205</v>
       </c>
+      <c r="AA73">
+        <v>10.11269858405198</v>
+      </c>
       <c r="AB73" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="74" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC73" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29">
       <c r="A74">
         <v>599105</v>
       </c>
       <c r="B74" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C74" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D74" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E74">
         <v>1929</v>
@@ -7317,7 +7539,7 @@
         <v>363</v>
       </c>
       <c r="G74" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H74">
         <v>16.739793348</v>
@@ -7326,7 +7548,7 @@
         <v>75.8280766613</v>
       </c>
       <c r="J74" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K74">
         <v>0</v>
@@ -7368,33 +7590,36 @@
         <v>0</v>
       </c>
       <c r="X74" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y74" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z74" t="s">
         <v>25</v>
       </c>
-      <c r="AA74" t="s">
-        <v>205</v>
+      <c r="AA74">
+        <v>13.7071892199312</v>
       </c>
       <c r="AB74" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="75" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC74" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29">
       <c r="A75">
         <v>599106</v>
       </c>
       <c r="B75" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C75" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D75" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E75">
         <v>880</v>
@@ -7403,7 +7628,7 @@
         <v>133</v>
       </c>
       <c r="G75" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H75">
         <v>16.7228367612</v>
@@ -7412,7 +7637,7 @@
         <v>75.8052179859</v>
       </c>
       <c r="J75" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K75">
         <v>0</v>
@@ -7454,33 +7679,36 @@
         <v>0</v>
       </c>
       <c r="X75" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y75" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z75" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA75" t="s">
         <v>205</v>
       </c>
+      <c r="AA75">
+        <v>12.90713997082254</v>
+      </c>
       <c r="AB75" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="76" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC75" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29">
       <c r="A76">
         <v>599107</v>
       </c>
       <c r="B76" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C76" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D76" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E76">
         <v>1961</v>
@@ -7489,7 +7717,7 @@
         <v>264</v>
       </c>
       <c r="G76" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H76">
         <v>16.7165065994</v>
@@ -7498,7 +7726,7 @@
         <v>75.8351027033</v>
       </c>
       <c r="J76" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K76">
         <v>0</v>
@@ -7540,33 +7768,36 @@
         <v>0</v>
       </c>
       <c r="X76" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y76" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z76" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA76" t="s">
         <v>205</v>
       </c>
+      <c r="AA76">
+        <v>15.78520019537407</v>
+      </c>
       <c r="AB76" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="77" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC76" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29">
       <c r="A77">
         <v>599109</v>
       </c>
       <c r="B77" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C77" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D77" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E77">
         <v>1839</v>
@@ -7575,7 +7806,7 @@
         <v>362</v>
       </c>
       <c r="G77" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H77">
         <v>16.7192089339</v>
@@ -7584,7 +7815,7 @@
         <v>75.5001903647</v>
       </c>
       <c r="J77" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K77">
         <v>0</v>
@@ -7626,33 +7857,36 @@
         <v>0</v>
       </c>
       <c r="X77" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y77" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z77" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA77" t="s">
         <v>205</v>
       </c>
+      <c r="AA77">
+        <v>24.94638997692996</v>
+      </c>
       <c r="AB77" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="78" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC77" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29">
       <c r="A78">
         <v>599110</v>
       </c>
       <c r="B78" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C78" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D78" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E78">
         <v>1020</v>
@@ -7661,7 +7895,7 @@
         <v>220</v>
       </c>
       <c r="G78" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H78">
         <v>16.7557188604</v>
@@ -7670,7 +7904,7 @@
         <v>75.5272547645</v>
       </c>
       <c r="J78" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K78">
         <v>0</v>
@@ -7712,33 +7946,36 @@
         <v>0</v>
       </c>
       <c r="X78" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y78" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z78" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA78" t="s">
         <v>205</v>
       </c>
+      <c r="AA78">
+        <v>20.92879981370749</v>
+      </c>
       <c r="AB78" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="79" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC78" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29">
       <c r="A79">
         <v>599111</v>
       </c>
       <c r="B79" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C79" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D79" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E79">
         <v>1401</v>
@@ -7747,7 +7984,7 @@
         <v>265</v>
       </c>
       <c r="G79" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H79">
         <v>16.7616587142</v>
@@ -7756,7 +7993,7 @@
         <v>75.5762781638</v>
       </c>
       <c r="J79" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K79">
         <v>0</v>
@@ -7798,33 +8035,36 @@
         <v>0</v>
       </c>
       <c r="X79" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y79" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z79" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA79" t="s">
         <v>205</v>
       </c>
+      <c r="AA79">
+        <v>15.72529150925655</v>
+      </c>
       <c r="AB79" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="80" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC79" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29">
       <c r="A80">
         <v>599112</v>
       </c>
       <c r="B80" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C80" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D80" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E80">
         <v>1368</v>
@@ -7833,7 +8073,7 @@
         <v>291</v>
       </c>
       <c r="G80" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H80">
         <v>16.7470111652</v>
@@ -7842,7 +8082,7 @@
         <v>75.60115764299999</v>
       </c>
       <c r="J80" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K80">
         <v>0</v>
@@ -7884,33 +8124,36 @@
         <v>0</v>
       </c>
       <c r="X80" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y80" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z80" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA80" t="s">
         <v>205</v>
       </c>
+      <c r="AA80">
+        <v>13.86631989263486</v>
+      </c>
       <c r="AB80" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="81" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC80" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="81" spans="1:29">
       <c r="A81">
         <v>599113</v>
       </c>
       <c r="B81" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C81" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D81" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E81">
         <v>5223</v>
@@ -7919,7 +8162,7 @@
         <v>1055</v>
       </c>
       <c r="G81" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H81">
         <v>16.7168246998</v>
@@ -7928,7 +8171,7 @@
         <v>75.6509117123</v>
       </c>
       <c r="J81" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K81">
         <v>0</v>
@@ -7970,33 +8213,36 @@
         <v>0</v>
       </c>
       <c r="X81" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y81" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z81" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA81" t="s">
         <v>205</v>
       </c>
+      <c r="AA81">
+        <v>11.92211302806416</v>
+      </c>
       <c r="AB81" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="82" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC81" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29">
       <c r="A82">
         <v>599114</v>
       </c>
       <c r="B82" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C82" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D82" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E82">
         <v>1453</v>
@@ -8005,7 +8251,7 @@
         <v>310</v>
       </c>
       <c r="G82" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H82">
         <v>16.6854241359</v>
@@ -8014,7 +8260,7 @@
         <v>75.6784840352</v>
       </c>
       <c r="J82" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K82">
         <v>0</v>
@@ -8056,33 +8302,36 @@
         <v>0</v>
       </c>
       <c r="X82" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y82" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z82" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA82" t="s">
         <v>205</v>
       </c>
+      <c r="AA82">
+        <v>13.71897882768159</v>
+      </c>
       <c r="AB82" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="83" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC82" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="83" spans="1:29">
       <c r="A83">
         <v>599115</v>
       </c>
       <c r="B83" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C83" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D83" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E83">
         <v>2149</v>
@@ -8091,7 +8340,7 @@
         <v>458</v>
       </c>
       <c r="G83" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H83">
         <v>16.6832331255</v>
@@ -8100,7 +8349,7 @@
         <v>75.7116994579</v>
       </c>
       <c r="J83" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K83">
         <v>0</v>
@@ -8142,33 +8391,36 @@
         <v>0</v>
       </c>
       <c r="X83" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y83" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z83" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA83" t="s">
         <v>205</v>
       </c>
+      <c r="AA83">
+        <v>13.33164377997494</v>
+      </c>
       <c r="AB83" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="84" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC83" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="84" spans="1:29">
       <c r="A84">
         <v>599116</v>
       </c>
       <c r="B84" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C84" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D84" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E84">
         <v>2932</v>
@@ -8177,7 +8429,7 @@
         <v>579</v>
       </c>
       <c r="G84" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H84">
         <v>16.6935091465</v>
@@ -8186,13 +8438,13 @@
         <v>75.7401646201</v>
       </c>
       <c r="J84" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K84">
         <v>1</v>
       </c>
       <c r="L84" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M84">
         <v>0</v>
@@ -8228,33 +8480,36 @@
         <v>0</v>
       </c>
       <c r="X84" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y84" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z84" t="s">
         <v>25</v>
       </c>
-      <c r="AA84" t="s">
-        <v>205</v>
+      <c r="AA84">
+        <v>12.41056868088648</v>
       </c>
       <c r="AB84" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="85" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC84" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="85" spans="1:29">
       <c r="A85">
         <v>599117</v>
       </c>
       <c r="B85" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C85" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D85" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E85">
         <v>1824</v>
@@ -8263,7 +8518,7 @@
         <v>358</v>
       </c>
       <c r="G85" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H85">
         <v>16.6554638755</v>
@@ -8272,7 +8527,7 @@
         <v>75.68693777519999</v>
       </c>
       <c r="J85" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K85">
         <v>0</v>
@@ -8314,33 +8569,36 @@
         <v>0</v>
       </c>
       <c r="X85" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y85" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z85" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA85" t="s">
         <v>205</v>
       </c>
+      <c r="AA85">
+        <v>16.72545683812835</v>
+      </c>
       <c r="AB85" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="86" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC85" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="86" spans="1:29">
       <c r="A86">
         <v>599118</v>
       </c>
       <c r="B86" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C86" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D86" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E86">
         <v>10645</v>
@@ -8349,7 +8607,7 @@
         <v>2133</v>
       </c>
       <c r="G86" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H86">
         <v>16.6675491572</v>
@@ -8358,7 +8616,7 @@
         <v>75.5908805517</v>
       </c>
       <c r="J86" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K86">
         <v>0</v>
@@ -8400,33 +8658,36 @@
         <v>0</v>
       </c>
       <c r="X86" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y86" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z86" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA86" t="s">
         <v>205</v>
       </c>
+      <c r="AA86">
+        <v>20.217401045261</v>
+      </c>
       <c r="AB86" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="87" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC86" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="87" spans="1:29">
       <c r="A87">
         <v>599119</v>
       </c>
       <c r="B87" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C87" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D87" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E87">
         <v>1845</v>
@@ -8435,7 +8696,7 @@
         <v>374</v>
       </c>
       <c r="G87" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H87">
         <v>16.7176541513</v>
@@ -8444,7 +8705,7 @@
         <v>75.59867403050001</v>
       </c>
       <c r="J87" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K87">
         <v>0</v>
@@ -8486,33 +8747,36 @@
         <v>0</v>
       </c>
       <c r="X87" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y87" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z87" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA87" t="s">
         <v>205</v>
       </c>
+      <c r="AA87">
+        <v>15.81838011921014</v>
+      </c>
       <c r="AB87" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="88" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC87" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="88" spans="1:29">
       <c r="A88">
         <v>599120</v>
       </c>
       <c r="B88" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C88" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D88" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E88">
         <v>6648</v>
@@ -8521,7 +8785,7 @@
         <v>1201</v>
       </c>
       <c r="G88" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H88">
         <v>16.7116489969</v>
@@ -8530,7 +8794,7 @@
         <v>75.5372046431</v>
       </c>
       <c r="J88" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K88">
         <v>0</v>
@@ -8572,33 +8836,36 @@
         <v>0</v>
       </c>
       <c r="X88" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y88" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z88" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA88" t="s">
         <v>205</v>
       </c>
+      <c r="AA88">
+        <v>21.72191594205919</v>
+      </c>
       <c r="AB88" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="89" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC88" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="89" spans="1:29">
       <c r="A89">
         <v>599123</v>
       </c>
       <c r="B89" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C89" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D89" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E89">
         <v>1657</v>
@@ -8607,7 +8874,7 @@
         <v>302</v>
       </c>
       <c r="G89" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H89">
         <v>16.6555838537</v>
@@ -8616,7 +8883,7 @@
         <v>75.51161740000001</v>
       </c>
       <c r="J89" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K89">
         <v>0</v>
@@ -8658,33 +8925,36 @@
         <v>0</v>
       </c>
       <c r="X89" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y89" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z89" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA89" t="s">
         <v>205</v>
       </c>
+      <c r="AA89">
+        <v>27.37763544421724</v>
+      </c>
       <c r="AB89" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="90" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC89" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="90" spans="1:29">
       <c r="A90">
         <v>599124</v>
       </c>
       <c r="B90" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C90" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D90" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E90">
         <v>2427</v>
@@ -8693,7 +8963,7 @@
         <v>411</v>
       </c>
       <c r="G90" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H90">
         <v>16.6628301019</v>
@@ -8702,7 +8972,7 @@
         <v>75.5395401434</v>
       </c>
       <c r="J90" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K90">
         <v>0</v>
@@ -8744,33 +9014,36 @@
         <v>0</v>
       </c>
       <c r="X90" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y90" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z90" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA90" t="s">
         <v>205</v>
       </c>
+      <c r="AA90">
+        <v>24.53958857306537</v>
+      </c>
       <c r="AB90" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="91" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC90" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="91" spans="1:29">
       <c r="A91">
         <v>599125</v>
       </c>
       <c r="B91" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C91" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D91" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E91">
         <v>2311</v>
@@ -8779,7 +9052,7 @@
         <v>440</v>
       </c>
       <c r="G91" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H91">
         <v>16.6201645801</v>
@@ -8788,7 +9061,7 @@
         <v>75.5674724932</v>
       </c>
       <c r="J91" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K91">
         <v>0</v>
@@ -8830,33 +9103,36 @@
         <v>0</v>
       </c>
       <c r="X91" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y91" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z91" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA91" t="s">
         <v>205</v>
       </c>
+      <c r="AA91">
+        <v>25.85981666569276</v>
+      </c>
       <c r="AB91" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="92" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC91" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="92" spans="1:29">
       <c r="A92">
         <v>599126</v>
       </c>
       <c r="B92" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C92" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D92" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E92">
         <v>1873</v>
@@ -8865,7 +9141,7 @@
         <v>339</v>
       </c>
       <c r="G92" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H92">
         <v>16.5969657685</v>
@@ -8874,7 +9150,7 @@
         <v>75.54419163430001</v>
       </c>
       <c r="J92" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K92">
         <v>0</v>
@@ -8916,33 +9192,36 @@
         <v>0</v>
       </c>
       <c r="X92" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y92" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z92" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA92" t="s">
         <v>205</v>
       </c>
+      <c r="AA92">
+        <v>29.4229402380716</v>
+      </c>
       <c r="AB92" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="93" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC92" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="93" spans="1:29">
       <c r="A93">
         <v>599127</v>
       </c>
       <c r="B93" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C93" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D93" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E93">
         <v>2057</v>
@@ -8951,7 +9230,7 @@
         <v>377</v>
       </c>
       <c r="G93" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H93">
         <v>16.6202960871</v>
@@ -8960,7 +9239,7 @@
         <v>75.52322371469999</v>
       </c>
       <c r="J93" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K93">
         <v>0</v>
@@ -9002,33 +9281,36 @@
         <v>0</v>
       </c>
       <c r="X93" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y93" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z93" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA93" t="s">
         <v>205</v>
       </c>
+      <c r="AA93">
+        <v>28.99946730487848</v>
+      </c>
       <c r="AB93" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="94" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC93" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="94" spans="1:29">
       <c r="A94">
         <v>599133</v>
       </c>
       <c r="B94" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C94" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D94" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E94">
         <v>2441</v>
@@ -9037,7 +9319,7 @@
         <v>420</v>
       </c>
       <c r="G94" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H94">
         <v>16.5814219198</v>
@@ -9046,7 +9328,7 @@
         <v>75.5826937418</v>
       </c>
       <c r="J94" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K94">
         <v>0</v>
@@ -9088,33 +9370,36 @@
         <v>0</v>
       </c>
       <c r="X94" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y94" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z94" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA94" t="s">
         <v>205</v>
       </c>
+      <c r="AA94">
+        <v>28.51853826108918</v>
+      </c>
       <c r="AB94" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="95" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC94" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="95" spans="1:29">
       <c r="A95">
         <v>599134</v>
       </c>
       <c r="B95" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C95" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D95" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E95">
         <v>7038</v>
@@ -9123,7 +9408,7 @@
         <v>1224</v>
       </c>
       <c r="G95" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H95">
         <v>16.6143627661</v>
@@ -9132,7 +9417,7 @@
         <v>75.6414231765</v>
       </c>
       <c r="J95" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K95">
         <v>0</v>
@@ -9174,33 +9459,36 @@
         <v>0</v>
       </c>
       <c r="X95" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y95" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z95" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA95" t="s">
         <v>205</v>
       </c>
+      <c r="AA95">
+        <v>22.48711942605062</v>
+      </c>
       <c r="AB95" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="96" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC95" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="96" spans="1:29">
       <c r="A96">
         <v>599135</v>
       </c>
       <c r="B96" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C96" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D96" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E96">
         <v>1540</v>
@@ -9209,7 +9497,7 @@
         <v>283</v>
       </c>
       <c r="G96" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H96">
         <v>16.5828090742</v>
@@ -9218,7 +9506,7 @@
         <v>75.61126830720001</v>
       </c>
       <c r="J96" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K96">
         <v>0</v>
@@ -9260,33 +9548,36 @@
         <v>0</v>
       </c>
       <c r="X96" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y96" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z96" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA96" t="s">
         <v>205</v>
       </c>
+      <c r="AA96">
+        <v>26.97350724177362</v>
+      </c>
       <c r="AB96" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="97" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC96" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="97" spans="1:29">
       <c r="A97">
         <v>599136</v>
       </c>
       <c r="B97" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C97" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D97" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E97">
         <v>3413</v>
@@ -9295,7 +9586,7 @@
         <v>636</v>
       </c>
       <c r="G97" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H97">
         <v>16.59836206</v>
@@ -9304,7 +9595,7 @@
         <v>75.69184092490001</v>
       </c>
       <c r="J97" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -9346,33 +9637,36 @@
         <v>0</v>
       </c>
       <c r="X97" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y97" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z97" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA97" t="s">
         <v>205</v>
       </c>
+      <c r="AA97">
+        <v>22.91838093703117</v>
+      </c>
       <c r="AB97" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="98" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC97" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="98" spans="1:29">
       <c r="A98">
         <v>599137</v>
       </c>
       <c r="B98" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C98" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D98" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E98">
         <v>1010</v>
@@ -9381,7 +9675,7 @@
         <v>155</v>
       </c>
       <c r="G98" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H98">
         <v>16.5535691013</v>
@@ -9390,7 +9684,7 @@
         <v>75.6784829744</v>
       </c>
       <c r="J98" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K98">
         <v>0</v>
@@ -9432,33 +9726,36 @@
         <v>0</v>
       </c>
       <c r="X98" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y98" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z98" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA98" t="s">
         <v>205</v>
       </c>
+      <c r="AA98">
+        <v>28.04538101447721</v>
+      </c>
       <c r="AB98" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="99" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC98" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="99" spans="1:29">
       <c r="A99">
         <v>599235</v>
       </c>
       <c r="B99" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C99" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D99" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E99">
         <v>1964</v>
@@ -9467,7 +9764,7 @@
         <v>366</v>
       </c>
       <c r="G99" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H99">
         <v>17.0587326931</v>
@@ -9476,7 +9773,7 @@
         <v>75.7962927876</v>
       </c>
       <c r="J99" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K99">
         <v>0</v>
@@ -9518,33 +9815,36 @@
         <v>0</v>
       </c>
       <c r="X99" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y99" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z99" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA99" t="s">
         <v>205</v>
       </c>
+      <c r="AA99">
+        <v>29.6448470878111</v>
+      </c>
       <c r="AB99" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="100" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC99" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="100" spans="1:29">
       <c r="A100">
         <v>599236</v>
       </c>
       <c r="B100" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C100" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D100" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E100">
         <v>1720</v>
@@ -9553,7 +9853,7 @@
         <v>333</v>
       </c>
       <c r="G100" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H100">
         <v>17.0494884823</v>
@@ -9562,7 +9862,7 @@
         <v>75.7702220196</v>
       </c>
       <c r="J100" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K100">
         <v>0</v>
@@ -9604,33 +9904,36 @@
         <v>0</v>
       </c>
       <c r="X100" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y100" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z100" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA100" t="s">
         <v>205</v>
       </c>
+      <c r="AA100">
+        <v>27.97569937858788</v>
+      </c>
       <c r="AB100" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="101" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC100" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="101" spans="1:29">
       <c r="A101">
         <v>599237</v>
       </c>
       <c r="B101" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C101" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D101" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E101">
         <v>1452</v>
@@ -9639,7 +9942,7 @@
         <v>278</v>
       </c>
       <c r="G101" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H101">
         <v>17.0229987167</v>
@@ -9648,7 +9951,7 @@
         <v>75.8017671873</v>
       </c>
       <c r="J101" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K101">
         <v>0</v>
@@ -9690,33 +9993,36 @@
         <v>0</v>
       </c>
       <c r="X101" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y101" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z101" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA101" t="s">
         <v>205</v>
       </c>
+      <c r="AA101">
+        <v>26.05254801714695</v>
+      </c>
       <c r="AB101" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="102" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC101" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="102" spans="1:29">
       <c r="A102">
         <v>599239</v>
       </c>
       <c r="B102" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C102" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D102" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E102">
         <v>1791</v>
@@ -9725,7 +10031,7 @@
         <v>298</v>
       </c>
       <c r="G102" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H102">
         <v>17.0314190223</v>
@@ -9734,7 +10040,7 @@
         <v>75.84716757450001</v>
       </c>
       <c r="J102" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K102">
         <v>0</v>
@@ -9776,33 +10082,36 @@
         <v>0</v>
       </c>
       <c r="X102" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y102" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z102" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA102" t="s">
         <v>205</v>
       </c>
+      <c r="AA102">
+        <v>28.90155302682171</v>
+      </c>
       <c r="AB102" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="103" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC102" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="103" spans="1:29">
       <c r="A103">
         <v>599242</v>
       </c>
       <c r="B103" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C103" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D103" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E103">
         <v>10075</v>
@@ -9811,7 +10120,7 @@
         <v>1922</v>
       </c>
       <c r="G103" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H103">
         <v>16.9928742698</v>
@@ -9820,7 +10129,7 @@
         <v>75.8669131538</v>
       </c>
       <c r="J103" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K103">
         <v>0</v>
@@ -9862,33 +10171,36 @@
         <v>0</v>
       </c>
       <c r="X103" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y103" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z103" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA103" t="s">
         <v>205</v>
       </c>
+      <c r="AA103">
+        <v>26.42625196702969</v>
+      </c>
       <c r="AB103" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="104" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC103" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="104" spans="1:29">
       <c r="A104">
         <v>599243</v>
       </c>
       <c r="B104" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C104" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D104" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E104">
         <v>2416</v>
@@ -9897,7 +10209,7 @@
         <v>461</v>
       </c>
       <c r="G104" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H104">
         <v>16.9560301806</v>
@@ -9906,7 +10218,7 @@
         <v>75.93327050889999</v>
       </c>
       <c r="J104" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K104">
         <v>0</v>
@@ -9948,33 +10260,36 @@
         <v>0</v>
       </c>
       <c r="X104" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y104" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z104" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA104" t="s">
         <v>205</v>
       </c>
+      <c r="AA104">
+        <v>28.5741658605026</v>
+      </c>
       <c r="AB104" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="105" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC104" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="105" spans="1:29">
       <c r="A105">
         <v>599391</v>
       </c>
       <c r="B105" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C105" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D105" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E105">
         <v>2419</v>
@@ -9983,7 +10298,7 @@
         <v>470</v>
       </c>
       <c r="G105" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H105">
         <v>16.9330956918</v>
@@ -9992,7 +10307,7 @@
         <v>75.9615668587</v>
       </c>
       <c r="J105" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K105">
         <v>0</v>
@@ -10034,33 +10349,36 @@
         <v>0</v>
       </c>
       <c r="X105" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y105" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z105" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA105" t="s">
         <v>205</v>
       </c>
+      <c r="AA105">
+        <v>29.72489867190522</v>
+      </c>
       <c r="AB105" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="106" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC105" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="106" spans="1:29">
       <c r="A106">
         <v>599443</v>
       </c>
       <c r="B106" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C106" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D106" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E106">
         <v>7997</v>
@@ -10069,7 +10387,7 @@
         <v>1539</v>
       </c>
       <c r="G106" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H106">
         <v>16.6068321764</v>
@@ -10078,7 +10396,7 @@
         <v>75.73134711669999</v>
       </c>
       <c r="J106" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K106">
         <v>0</v>
@@ -10120,33 +10438,36 @@
         <v>0</v>
       </c>
       <c r="X106" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y106" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z106" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA106" t="s">
         <v>205</v>
       </c>
+      <c r="AA106">
+        <v>21.86205050273424</v>
+      </c>
       <c r="AB106" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="107" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC106" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="107" spans="1:29">
       <c r="A107">
         <v>599444</v>
       </c>
       <c r="B107" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C107" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D107" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E107">
         <v>3212</v>
@@ -10155,7 +10476,7 @@
         <v>601</v>
       </c>
       <c r="G107" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H107">
         <v>16.5680057741</v>
@@ -10164,7 +10485,7 @@
         <v>75.76327245909999</v>
       </c>
       <c r="J107" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K107">
         <v>0</v>
@@ -10206,33 +10527,36 @@
         <v>0</v>
       </c>
       <c r="X107" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y107" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z107" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA107" t="s">
-        <v>206</v>
+        <v>205</v>
+      </c>
+      <c r="AA107">
+        <v>26.58000731487559</v>
       </c>
       <c r="AB107" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="108" spans="1:28">
+        <v>207</v>
+      </c>
+      <c r="AC107" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="108" spans="1:29">
       <c r="A108">
         <v>599445</v>
       </c>
       <c r="B108" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C108" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D108" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E108">
         <v>3932</v>
@@ -10241,7 +10565,7 @@
         <v>725</v>
       </c>
       <c r="G108" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H108">
         <v>16.5627735176</v>
@@ -10250,7 +10574,7 @@
         <v>75.80070682660001</v>
       </c>
       <c r="J108" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K108">
         <v>0</v>
@@ -10292,33 +10616,36 @@
         <v>0</v>
       </c>
       <c r="X108" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y108" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z108" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA108" t="s">
-        <v>206</v>
+        <v>205</v>
+      </c>
+      <c r="AA108">
+        <v>28.14223971044785</v>
       </c>
       <c r="AB108" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="109" spans="1:28">
+        <v>207</v>
+      </c>
+      <c r="AC108" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="109" spans="1:29">
       <c r="A109">
         <v>599495</v>
       </c>
       <c r="B109" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C109" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D109" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E109">
         <v>15109</v>
@@ -10327,7 +10654,7 @@
         <v>3073</v>
       </c>
       <c r="G109" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H109">
         <v>16.6515195005</v>
@@ -10336,7 +10663,7 @@
         <v>75.8102291173</v>
       </c>
       <c r="J109" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K109">
         <v>0</v>
@@ -10378,33 +10705,36 @@
         <v>0</v>
       </c>
       <c r="X109" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y109" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z109" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA109" t="s">
         <v>205</v>
       </c>
+      <c r="AA109">
+        <v>19.52260707534849</v>
+      </c>
       <c r="AB109" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="110" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC109" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="110" spans="1:29">
       <c r="A110">
         <v>599496</v>
       </c>
       <c r="B110" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C110" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D110" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E110">
         <v>8519</v>
@@ -10413,7 +10743,7 @@
         <v>1759</v>
       </c>
       <c r="G110" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H110">
         <v>16.7210816227</v>
@@ -10422,7 +10752,7 @@
         <v>75.8930951705</v>
       </c>
       <c r="J110" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K110">
         <v>0</v>
@@ -10464,33 +10794,36 @@
         <v>0</v>
       </c>
       <c r="X110" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y110" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z110" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA110" t="s">
         <v>205</v>
       </c>
+      <c r="AA110">
+        <v>20.7927667551135</v>
+      </c>
       <c r="AB110" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="111" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC110" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="111" spans="1:29">
       <c r="A111">
         <v>599497</v>
       </c>
       <c r="B111" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C111" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D111" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E111">
         <v>2257</v>
@@ -10499,7 +10832,7 @@
         <v>433</v>
       </c>
       <c r="G111" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H111">
         <v>16.7610603252</v>
@@ -10508,7 +10841,7 @@
         <v>75.9258705914</v>
       </c>
       <c r="J111" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K111">
         <v>0</v>
@@ -10550,33 +10883,36 @@
         <v>0</v>
       </c>
       <c r="X111" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y111" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z111" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA111" t="s">
         <v>205</v>
       </c>
+      <c r="AA111">
+        <v>22.66371936067479</v>
+      </c>
       <c r="AB111" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="112" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC111" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="112" spans="1:29">
       <c r="A112">
         <v>599498</v>
       </c>
       <c r="B112" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C112" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D112" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E112">
         <v>488</v>
@@ -10585,7 +10921,7 @@
         <v>82</v>
       </c>
       <c r="G112" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H112">
         <v>16.7581506678</v>
@@ -10594,7 +10930,7 @@
         <v>75.9491961242</v>
       </c>
       <c r="J112" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K112">
         <v>0</v>
@@ -10636,33 +10972,36 @@
         <v>0</v>
       </c>
       <c r="X112" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y112" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z112" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA112" t="s">
         <v>205</v>
       </c>
+      <c r="AA112">
+        <v>25.16130856256603</v>
+      </c>
       <c r="AB112" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="113" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC112" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="113" spans="1:29">
       <c r="A113">
         <v>599499</v>
       </c>
       <c r="B113" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C113" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D113" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E113">
         <v>145</v>
@@ -10671,7 +11010,7 @@
         <v>25</v>
       </c>
       <c r="G113" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H113">
         <v>16.7499595507</v>
@@ -10680,7 +11019,7 @@
         <v>75.96848501789999</v>
       </c>
       <c r="J113" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K113">
         <v>0</v>
@@ -10722,33 +11061,36 @@
         <v>0</v>
       </c>
       <c r="X113" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y113" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z113" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA113" t="s">
         <v>205</v>
       </c>
+      <c r="AA113">
+        <v>27.35945667800803</v>
+      </c>
       <c r="AB113" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="114" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC113" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="114" spans="1:29">
       <c r="A114">
         <v>599502</v>
       </c>
       <c r="B114" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C114" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D114" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E114">
         <v>2761</v>
@@ -10757,7 +11099,7 @@
         <v>520</v>
       </c>
       <c r="G114" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H114">
         <v>16.715879276</v>
@@ -10766,7 +11108,7 @@
         <v>75.9538448271</v>
       </c>
       <c r="J114" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K114">
         <v>0</v>
@@ -10808,33 +11150,36 @@
         <v>0</v>
       </c>
       <c r="X114" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y114" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z114" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA114" t="s">
         <v>205</v>
       </c>
+      <c r="AA114">
+        <v>26.96033307056093</v>
+      </c>
       <c r="AB114" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="115" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC114" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="115" spans="1:29">
       <c r="A115">
         <v>599505</v>
       </c>
       <c r="B115" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C115" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D115" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E115">
         <v>5742</v>
@@ -10843,7 +11188,7 @@
         <v>1198</v>
       </c>
       <c r="G115" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H115">
         <v>16.666057703</v>
@@ -10852,7 +11197,7 @@
         <v>75.9489776688</v>
       </c>
       <c r="J115" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K115">
         <v>0</v>
@@ -10894,33 +11239,36 @@
         <v>0</v>
       </c>
       <c r="X115" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y115" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z115" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA115" t="s">
         <v>205</v>
       </c>
+      <c r="AA115">
+        <v>28.96949359656352</v>
+      </c>
       <c r="AB115" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="116" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC115" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="116" spans="1:29">
       <c r="A116">
         <v>599506</v>
       </c>
       <c r="B116" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C116" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D116" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E116">
         <v>1112</v>
@@ -10929,7 +11277,7 @@
         <v>223</v>
       </c>
       <c r="G116" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H116">
         <v>16.6591825226</v>
@@ -10938,7 +11286,7 @@
         <v>75.91933507749999</v>
       </c>
       <c r="J116" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K116">
         <v>0</v>
@@ -10980,33 +11328,36 @@
         <v>0</v>
       </c>
       <c r="X116" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y116" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z116" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA116" t="s">
         <v>205</v>
       </c>
+      <c r="AA116">
+        <v>26.78607653205688</v>
+      </c>
       <c r="AB116" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="117" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC116" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="117" spans="1:29">
       <c r="A117">
         <v>599507</v>
       </c>
       <c r="B117" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C117" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D117" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E117">
         <v>801</v>
@@ -11015,7 +11366,7 @@
         <v>148</v>
       </c>
       <c r="G117" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H117">
         <v>16.7309165661</v>
@@ -11024,7 +11375,7 @@
         <v>75.85434629549999</v>
       </c>
       <c r="J117" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K117">
         <v>0</v>
@@ -11066,33 +11417,36 @@
         <v>0</v>
       </c>
       <c r="X117" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y117" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z117" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA117" t="s">
         <v>205</v>
       </c>
+      <c r="AA117">
+        <v>16.62512783682848</v>
+      </c>
       <c r="AB117" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="118" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC117" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="118" spans="1:29">
       <c r="A118">
         <v>599508</v>
       </c>
       <c r="B118" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C118" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D118" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E118">
         <v>2726</v>
@@ -11101,7 +11455,7 @@
         <v>567</v>
       </c>
       <c r="G118" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H118">
         <v>16.6544307962</v>
@@ -11110,7 +11464,7 @@
         <v>75.8893695384</v>
       </c>
       <c r="J118" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K118">
         <v>0</v>
@@ -11152,33 +11506,36 @@
         <v>0</v>
       </c>
       <c r="X118" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y118" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z118" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA118" t="s">
         <v>205</v>
       </c>
+      <c r="AA118">
+        <v>24.652032917093</v>
+      </c>
       <c r="AB118" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="119" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC118" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="119" spans="1:29">
       <c r="A119">
         <v>599509</v>
       </c>
       <c r="B119" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C119" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D119" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E119">
         <v>2546</v>
@@ -11187,7 +11544,7 @@
         <v>503</v>
       </c>
       <c r="G119" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H119">
         <v>16.6295693568</v>
@@ -11196,7 +11553,7 @@
         <v>75.8889657604</v>
       </c>
       <c r="J119" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K119">
         <v>0</v>
@@ -11238,33 +11595,36 @@
         <v>0</v>
       </c>
       <c r="X119" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y119" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z119" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA119" t="s">
         <v>205</v>
       </c>
+      <c r="AA119">
+        <v>26.55510397579953</v>
+      </c>
       <c r="AB119" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="120" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC119" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="120" spans="1:29">
       <c r="A120">
         <v>599510</v>
       </c>
       <c r="B120" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C120" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D120" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E120">
         <v>3476</v>
@@ -11273,7 +11633,7 @@
         <v>684</v>
       </c>
       <c r="G120" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H120">
         <v>16.6008800084</v>
@@ -11282,7 +11642,7 @@
         <v>75.86842618830001</v>
       </c>
       <c r="J120" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K120">
         <v>0</v>
@@ -11324,33 +11684,36 @@
         <v>0</v>
       </c>
       <c r="X120" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y120" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z120" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA120" t="s">
         <v>205</v>
       </c>
+      <c r="AA120">
+        <v>27.62869823967219</v>
+      </c>
       <c r="AB120" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="121" spans="1:28">
+        <v>206</v>
+      </c>
+      <c r="AC120" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="121" spans="1:29">
       <c r="A121">
         <v>803051</v>
       </c>
       <c r="B121" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C121" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D121" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E121">
         <v>327427</v>
@@ -11359,7 +11722,7 @@
         <v>65543</v>
       </c>
       <c r="G121" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H121">
         <v>16.8311551405</v>
@@ -11368,25 +11731,25 @@
         <v>75.7030641899</v>
       </c>
       <c r="J121" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K121">
         <v>214</v>
       </c>
       <c r="L121" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M121" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N121" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O121" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P121" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q121">
         <v>2359</v>
@@ -11410,19 +11773,22 @@
         <v>321</v>
       </c>
       <c r="X121" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y121" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z121" t="s">
         <v>25</v>
       </c>
-      <c r="AA121" t="s">
-        <v>206</v>
+      <c r="AA121">
+        <v>3.489578221655408</v>
       </c>
       <c r="AB121" t="s">
-        <v>213</v>
+        <v>207</v>
+      </c>
+      <c r="AC121" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
